--- a/india/data/india_cement_data_all.xlsx
+++ b/india/data/india_cement_data_all.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cicero.sharepoint.com/sites/Group-ClimateMitigation/Shared Documents/GCP/Cement/data/India/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberan\CICERO senter for klimaforskning\CM - Documents\GCP\Cement\data\India\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2138" documentId="8_{88F006FA-287D-4ADF-8092-55D98FEDA451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{501CE62B-E8EC-4038-BE28-A0DC8D06757F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A4692F-07EE-461F-BA21-2572B5175E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="17400" tabRatio="718" firstSheet="16" activeTab="20" xr2:uid="{078DD7A2-32AD-4090-9EEA-F2342D7BD6F7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="17400" tabRatio="718" firstSheet="9" activeTab="12" xr2:uid="{078DD7A2-32AD-4090-9EEA-F2342D7BD6F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="17" r:id="rId1"/>
@@ -1026,7 +1026,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="465">
   <si>
     <t>2001-02</t>
   </si>
@@ -12286,9 +12286,9 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B050814D-8D50-4367-B6D9-0F8CD20B5EE6}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -12313,16 +12313,16 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="25">
         <v>1.088821</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="25">
         <v>3.4948589999999999</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="25">
         <v>0.184033</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="25">
         <v>1.0956239999999999</v>
       </c>
     </row>
@@ -12330,16 +12330,16 @@
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="25">
         <v>1.267166</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="25">
         <v>3.3985460000000001</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="25">
         <v>0.145897</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="25">
         <v>1.011064</v>
       </c>
     </row>
@@ -12347,16 +12347,16 @@
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="25">
         <v>0.78325400000000001</v>
       </c>
       <c r="C4" s="25">
         <v>2.8080799999999999</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="25">
         <v>0.55664899999999995</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="25">
         <v>1.181846</v>
       </c>
     </row>
@@ -12364,16 +12364,16 @@
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="25">
         <v>2.4259029999999999</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="25">
         <v>5.1407579999999999</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="25">
         <v>8.0163999999999999E-2</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="25">
         <v>0.77832100000000004</v>
       </c>
     </row>
@@ -12381,16 +12381,16 @@
       <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="25">
         <v>3.9739870000000002</v>
       </c>
       <c r="C6" s="25">
         <v>6.2875800000000002</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="25">
         <v>4.8550999999999997E-2</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="25">
         <v>1.100004</v>
       </c>
     </row>
@@ -12401,14 +12401,65 @@
       <c r="B7" s="25">
         <v>2.8491200000000001</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="25">
         <v>6.2224339999999998</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="25">
         <v>0.235593</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="25">
         <v>1.358862</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="25">
+        <v>3.9885609999999998</v>
+      </c>
+      <c r="C8" s="25">
+        <v>6.8508040000000001</v>
+      </c>
+      <c r="D8" s="25">
+        <v>0.32481300000000002</v>
+      </c>
+      <c r="E8" s="25">
+        <v>2.0375990000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="25">
+        <v>4.0921250000000002</v>
+      </c>
+      <c r="C9" s="25">
+        <v>6.6642099999999997</v>
+      </c>
+      <c r="D9" s="25">
+        <v>0.84932099999999999</v>
+      </c>
+      <c r="E9" s="25">
+        <v>2.6180490000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="25">
+        <v>3.5705499999999999</v>
+      </c>
+      <c r="C10" s="25">
+        <v>5.8243029999999996</v>
+      </c>
+      <c r="D10" s="25">
+        <v>0.77641300000000002</v>
+      </c>
+      <c r="E10" s="25">
+        <v>2.26159</v>
       </c>
     </row>
   </sheetData>
@@ -18533,7 +18584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C17AFE-943A-408B-96FC-95EA887A4B04}">
   <dimension ref="A1:A42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -22897,18 +22948,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22931,18 +22982,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93A05770-88BD-476B-A645-3F71A08C81D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B7BF63D-9318-46D4-A0DE-D0F964B33A5D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93A05770-88BD-476B-A645-3F71A08C81D3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>